--- a/blue-mirror_dataset.xlsx
+++ b/blue-mirror_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joil\github\blue-mirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EE24B-408A-4524-A49B-0FB6DF09FBE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D4176-330E-4F27-B3B1-7B5405A20D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB73" sheetId="1" r:id="rId1"/>
@@ -727,6 +727,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -744,10 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1087,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GG15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,26 +1861,26 @@
       <c r="GG2" s="2"/>
     </row>
     <row r="3" spans="1:189" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -2298,22 +2298,22 @@
       <c r="GG4" s="2"/>
     </row>
     <row r="5" spans="1:189" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2674,22 +2674,22 @@
       <c r="GG6" s="2"/>
     </row>
     <row r="7" spans="1:189" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -2854,85 +2854,85 @@
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="U9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="47" t="s">
+      <c r="Y9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="Z9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3817,27 +3817,27 @@
       <c r="GC2" s="2"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -4092,23 +4092,23 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -4462,23 +4462,23 @@
       <c r="GC6" s="2"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -5195,22 +5195,22 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -5251,22 +5251,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -6196,27 +6196,27 @@
       <c r="GC2" s="18"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -6471,23 +6471,23 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -6841,23 +6841,23 @@
       <c r="GC6" s="18"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -7574,22 +7574,22 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -7636,22 +7636,22 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -8620,27 +8620,27 @@
       <c r="GE2" s="18"/>
     </row>
     <row r="3" spans="1:188" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -8897,23 +8897,23 @@
       </c>
     </row>
     <row r="5" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -9271,23 +9271,23 @@
       <c r="GE6" s="18"/>
     </row>
     <row r="7" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -10008,22 +10008,22 @@
       <c r="AD15" s="38"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -10070,22 +10070,22 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -11050,27 +11050,27 @@
       <c r="GC2" s="18"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -11325,23 +11325,23 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -11695,23 +11695,23 @@
       <c r="GC6" s="18"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -12428,22 +12428,22 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -12490,22 +12490,22 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -12970,27 +12970,27 @@
       <c r="GE2" s="18"/>
     </row>
     <row r="3" spans="1:188" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -13247,23 +13247,23 @@
       </c>
     </row>
     <row r="5" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -13621,23 +13621,23 @@
       <c r="GE6" s="18"/>
     </row>
     <row r="7" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -14358,22 +14358,22 @@
       <c r="AD15" s="38"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -14420,22 +14420,22 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -15402,27 +15402,27 @@
       <c r="GD2" s="18"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -15678,23 +15678,23 @@
       </c>
     </row>
     <row r="5" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -16050,23 +16050,23 @@
       <c r="GD6" s="18"/>
     </row>
     <row r="7" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -16784,22 +16784,22 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -16846,22 +16846,22 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -17826,27 +17826,27 @@
       <c r="GC2" s="18"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -18101,23 +18101,23 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -18471,23 +18471,23 @@
       <c r="GC6" s="18"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -19204,22 +19204,22 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -19266,22 +19266,22 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -20250,27 +20250,27 @@
       <c r="GE2" s="18"/>
     </row>
     <row r="3" spans="1:188" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -20527,23 +20527,23 @@
       </c>
     </row>
     <row r="5" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -20901,23 +20901,23 @@
       <c r="GE6" s="18"/>
     </row>
     <row r="7" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -21638,22 +21638,22 @@
       <c r="AD15" s="38"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -21700,22 +21700,22 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -22179,26 +22179,26 @@
       <c r="GD2" s="18"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
@@ -22553,22 +22553,22 @@
       <c r="GD4" s="18"/>
     </row>
     <row r="5" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -22923,26 +22923,26 @@
       <c r="GD6" s="18"/>
     </row>
     <row r="7" spans="1:187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -23744,21 +23744,21 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -23806,21 +23806,21 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -24787,26 +24787,26 @@
       <c r="GC2" s="18"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
@@ -25061,22 +25061,22 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -25429,22 +25429,22 @@
       <c r="GC6" s="18"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -26161,21 +26161,21 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -26223,21 +26223,21 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -27082,26 +27082,26 @@
       <c r="GF2" s="2"/>
     </row>
     <row r="3" spans="1:188" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -27517,22 +27517,22 @@
       <c r="GF4" s="2"/>
     </row>
     <row r="5" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -27891,22 +27891,22 @@
       <c r="GF6" s="2"/>
     </row>
     <row r="7" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -28070,85 +28070,85 @@
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="U9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="47" t="s">
+      <c r="Y9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="Z9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AD9" s="16"/>
@@ -29563,27 +29563,27 @@
       <c r="GJ2" s="18"/>
     </row>
     <row r="3" spans="1:193" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -29843,23 +29843,23 @@
       </c>
     </row>
     <row r="5" spans="1:193" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="22"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -30222,23 +30222,23 @@
       <c r="GJ6" s="18"/>
     </row>
     <row r="7" spans="1:193" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -30966,22 +30966,22 @@
       <c r="AI15" s="38"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -31034,22 +31034,22 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -31155,60 +31155,60 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="I3" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="I5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31871,7 +31871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8284B8A0-524A-4AEA-A160-742F5FD4DA45}">
   <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -34047,111 +34047,111 @@
       <c r="A27">
         <v>73</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="39">
         <f>B3*10+4.2</f>
         <v>7.6</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="39">
         <f t="shared" ref="C27:AB37" si="0">C3*10+4.2</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="39">
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="39">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="39">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="39">
         <f t="shared" si="0"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="39">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="39">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="39">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="39">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="39">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="39">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27" s="39">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27" s="39">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="U27" s="46">
+      <c r="U27" s="39">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27" s="39">
         <f t="shared" si="0"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="W27" s="46">
+      <c r="W27" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="X27" s="46">
+      <c r="X27" s="39">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="Y27" s="46">
+      <c r="Y27" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z27" s="46">
+      <c r="Z27" s="39">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AA27" s="39">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="AB27" s="46">
+      <c r="AB27" s="39">
         <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
@@ -34160,111 +34160,111 @@
       <c r="A28">
         <v>74</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="39">
         <f t="shared" ref="B28:Q47" si="1">B4*10+4.2</f>
         <v>7.4</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="39">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="39">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="39">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="39">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="39">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="39">
         <f t="shared" si="1"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="39">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="39">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="39">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="39">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="39">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="39">
         <f t="shared" si="1"/>
         <v>5.2000000000000011</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="39">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="39">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="39">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="39">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="39">
         <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="39">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="Y28" s="46">
+      <c r="Y28" s="39">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="Z28" s="39">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AA28" s="39">
         <f t="shared" si="0"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="AB28" s="46">
+      <c r="AB28" s="39">
         <f t="shared" si="0"/>
         <v>5.3000000000000007</v>
       </c>
@@ -34273,111 +34273,111 @@
       <c r="A29">
         <v>75</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="39">
         <f t="shared" si="1"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="39">
         <f t="shared" si="0"/>
         <v>8.7000000000000011</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="39">
         <f t="shared" si="0"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="39">
         <f t="shared" si="0"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="39">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="39">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="39">
         <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="39">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="39">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="39">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="39">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="39">
         <f t="shared" si="0"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="39">
         <f t="shared" si="0"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="S29" s="46">
+      <c r="S29" s="39">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="T29" s="46">
+      <c r="T29" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="U29" s="46">
+      <c r="U29" s="39">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W29" s="46">
+      <c r="W29" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="X29" s="46">
+      <c r="X29" s="39">
         <f t="shared" si="0"/>
         <v>8.9000000000000021</v>
       </c>
-      <c r="Y29" s="46">
+      <c r="Y29" s="39">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="Z29" s="46">
+      <c r="Z29" s="39">
         <f t="shared" si="0"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="AA29" s="46">
+      <c r="AA29" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="AB29" s="46">
+      <c r="AB29" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
@@ -34386,111 +34386,111 @@
       <c r="A30">
         <v>76</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="39">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="39">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="39">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="39">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="39">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="39">
         <f t="shared" si="0"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="39">
         <f t="shared" si="0"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="39">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="39">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="39">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="39">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="S30" s="46">
+      <c r="S30" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="T30" s="46">
+      <c r="T30" s="39">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="U30" s="46">
+      <c r="U30" s="39">
         <f t="shared" si="0"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="V30" s="46">
+      <c r="V30" s="39">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="W30" s="46">
+      <c r="W30" s="39">
         <f t="shared" si="0"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="X30" s="46">
+      <c r="X30" s="39">
         <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y30" s="46">
+      <c r="Y30" s="39">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="Z30" s="46">
+      <c r="Z30" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA30" s="46">
+      <c r="AA30" s="39">
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="AB30" s="46">
+      <c r="AB30" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
@@ -34499,111 +34499,111 @@
       <c r="A31">
         <v>77</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="39">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="39">
         <f t="shared" si="0"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="39">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="39">
         <f t="shared" si="0"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="39">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="39">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="39">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="39">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="39">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="39">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="39">
         <f t="shared" si="0"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="39">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="39">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="S31" s="46">
+      <c r="S31" s="39">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="T31" s="46">
+      <c r="T31" s="39">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="U31" s="46">
+      <c r="U31" s="39">
         <f t="shared" si="0"/>
         <v>2.9000000000000004</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W31" s="46">
+      <c r="W31" s="39">
         <f t="shared" si="0"/>
         <v>3.1000000000000005</v>
       </c>
-      <c r="X31" s="46">
+      <c r="X31" s="39">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="Y31" s="46">
+      <c r="Y31" s="39">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="Z31" s="46">
+      <c r="Z31" s="39">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AA31" s="39">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="AB31" s="46">
+      <c r="AB31" s="39">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
@@ -34612,111 +34612,111 @@
       <c r="A32">
         <v>78</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="39">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="39">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="39">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="39">
         <f t="shared" si="0"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="39">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="39">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="39">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="39">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="39">
         <f t="shared" si="0"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="39">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="39">
         <f t="shared" si="0"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="39">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="R32" s="46">
+      <c r="R32" s="39">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="S32" s="46">
+      <c r="S32" s="39">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="T32" s="46">
+      <c r="T32" s="39">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="U32" s="46">
+      <c r="U32" s="39">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="V32" s="46">
+      <c r="V32" s="39">
         <f t="shared" si="0"/>
         <v>7.2000000000000011</v>
       </c>
-      <c r="W32" s="46">
+      <c r="W32" s="39">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="X32" s="46">
+      <c r="X32" s="39">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="Y32" s="46">
+      <c r="Y32" s="39">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="Z32" s="46">
+      <c r="Z32" s="39">
         <f t="shared" si="0"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AA32" s="39">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="AB32" s="46">
+      <c r="AB32" s="39">
         <f t="shared" si="0"/>
         <v>3.8000000000000003</v>
       </c>
@@ -34725,111 +34725,111 @@
       <c r="A33">
         <v>79</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="39">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="39">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="39">
         <f t="shared" si="0"/>
         <v>3.1000000000000005</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="39">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="39">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="39">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="39">
         <f t="shared" si="0"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="39">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="39">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="39">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="39">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="R33" s="46">
+      <c r="R33" s="39">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="S33" s="46">
+      <c r="S33" s="39">
         <f t="shared" si="0"/>
         <v>7.2000000000000011</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="39">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="U33" s="46">
+      <c r="U33" s="39">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="V33" s="46">
+      <c r="V33" s="39">
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="W33" s="46">
+      <c r="W33" s="39">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="X33" s="46">
+      <c r="X33" s="39">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="Y33" s="46">
+      <c r="Y33" s="39">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="Z33" s="46">
+      <c r="Z33" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA33" s="46">
+      <c r="AA33" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AB33" s="46">
+      <c r="AB33" s="39">
         <f t="shared" si="0"/>
         <v>3.6999999999999997</v>
       </c>
@@ -34838,111 +34838,111 @@
       <c r="A34">
         <v>80</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="39">
         <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="39">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="39">
         <f t="shared" si="0"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="39">
         <f t="shared" si="0"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="39">
         <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="39">
         <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="39">
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="39">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="39">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="39">
         <f t="shared" si="0"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="39">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="39">
         <f t="shared" si="0"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="S34" s="46">
+      <c r="S34" s="39">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="39">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U34" s="39">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="V34" s="46">
+      <c r="V34" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="W34" s="46">
+      <c r="W34" s="39">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="X34" s="46">
+      <c r="X34" s="39">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="Y34" s="46">
+      <c r="Y34" s="39">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="Z34" s="46">
+      <c r="Z34" s="39">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AA34" s="39">
         <f t="shared" si="0"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="AB34" s="46">
+      <c r="AB34" s="39">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
@@ -34951,111 +34951,111 @@
       <c r="A35">
         <v>81</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="39">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="39">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="39">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="39">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="39">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="39">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="39">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="39">
         <f t="shared" si="0"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="39">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="39">
         <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="39">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="39">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="39">
         <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="R35" s="46">
+      <c r="R35" s="39">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="S35" s="46">
+      <c r="S35" s="39">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="U35" s="46">
+      <c r="U35" s="39">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="V35" s="46">
+      <c r="V35" s="39">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="W35" s="46">
+      <c r="W35" s="39">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="X35" s="46">
+      <c r="X35" s="39">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y35" s="46">
+      <c r="Y35" s="39">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="Z35" s="46">
+      <c r="Z35" s="39">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA35" s="46">
+      <c r="AA35" s="39">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="AB35" s="46">
+      <c r="AB35" s="39">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
@@ -35064,111 +35064,111 @@
       <c r="A36">
         <v>82</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="39">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="39">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="39">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="39">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="39">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="39">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="39">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="39">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="39">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="39">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="39">
         <f t="shared" si="0"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="39">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="S36" s="46">
+      <c r="S36" s="39">
         <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
-      <c r="T36" s="46">
+      <c r="T36" s="39">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="U36" s="46">
+      <c r="U36" s="39">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="V36" s="46">
+      <c r="V36" s="39">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="W36" s="46">
+      <c r="W36" s="39">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="X36" s="46">
+      <c r="X36" s="39">
         <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y36" s="46">
+      <c r="Y36" s="39">
         <f t="shared" si="0"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="Z36" s="46">
+      <c r="Z36" s="39">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="AA36" s="46">
+      <c r="AA36" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB36" s="46">
+      <c r="AB36" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -35177,111 +35177,111 @@
       <c r="A37">
         <v>83</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="39">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="39">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="39">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="39">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="39">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="39">
         <f t="shared" si="0"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="39">
         <f t="shared" si="0"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="39">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="39">
         <f t="shared" ref="C37:AB47" si="2">M13*10+4.2</f>
         <v>5.5</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="39">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="39">
         <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="39">
         <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="39">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="S37" s="46">
+      <c r="S37" s="39">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="T37" s="46">
+      <c r="T37" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="39">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="V37" s="46">
+      <c r="V37" s="39">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="W37" s="46">
+      <c r="W37" s="39">
         <f t="shared" si="2"/>
         <v>6.6999999999999993</v>
       </c>
-      <c r="X37" s="46">
+      <c r="X37" s="39">
         <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
-      <c r="Y37" s="46">
+      <c r="Y37" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="Z37" s="46">
+      <c r="Z37" s="39">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AA37" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AB37" s="46">
+      <c r="AB37" s="39">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
@@ -35290,111 +35290,111 @@
       <c r="A38">
         <v>84</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="39">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="39">
         <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="39">
         <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="39">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="39">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="39">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="39">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="39">
         <f t="shared" si="2"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="39">
         <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="39">
         <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
-      <c r="R38" s="46">
+      <c r="R38" s="39">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="S38" s="46">
+      <c r="S38" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="T38" s="46">
+      <c r="T38" s="39">
         <f t="shared" si="2"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="U38" s="46">
+      <c r="U38" s="39">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="V38" s="46">
+      <c r="V38" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="W38" s="46">
+      <c r="W38" s="39">
         <f t="shared" si="2"/>
         <v>6.9</v>
       </c>
-      <c r="X38" s="46">
+      <c r="X38" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Y38" s="46">
+      <c r="Y38" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="Z38" s="46">
+      <c r="Z38" s="39">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="AA38" s="46">
+      <c r="AA38" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="AB38" s="46">
+      <c r="AB38" s="39">
         <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
@@ -35403,111 +35403,111 @@
       <c r="A39">
         <v>85</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="39">
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="39">
         <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="39">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="39">
         <f t="shared" si="2"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="39">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="39">
         <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="39">
         <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="39">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="39">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="39">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="39">
         <f t="shared" si="2"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="39">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="39">
         <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="39">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="39">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S39" s="46">
+      <c r="S39" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="39">
         <f t="shared" si="2"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="U39" s="46">
+      <c r="U39" s="39">
         <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
-      <c r="V39" s="46">
+      <c r="V39" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="W39" s="46">
+      <c r="W39" s="39">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="X39" s="46">
+      <c r="X39" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Y39" s="46">
+      <c r="Y39" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="Z39" s="46">
+      <c r="Z39" s="39">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA39" s="46">
+      <c r="AA39" s="39">
         <f t="shared" si="2"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="AB39" s="46">
+      <c r="AB39" s="39">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
@@ -35516,111 +35516,111 @@
       <c r="A40">
         <v>86</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="39">
         <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="39">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="39">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="39">
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="39">
         <f t="shared" si="2"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="39">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="39">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="39">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="39">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="39">
         <f t="shared" si="2"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="39">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="39">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="39">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="S40" s="46">
+      <c r="S40" s="39">
         <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="39">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="U40" s="46">
+      <c r="U40" s="39">
         <f t="shared" si="2"/>
         <v>3.5000000000000009</v>
       </c>
-      <c r="V40" s="46">
+      <c r="V40" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="W40" s="46">
+      <c r="W40" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="X40" s="46">
+      <c r="X40" s="39">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="Y40" s="46">
+      <c r="Y40" s="39">
         <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
-      <c r="Z40" s="46">
+      <c r="Z40" s="39">
         <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AA40" s="46">
+      <c r="AA40" s="39">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="AB40" s="46">
+      <c r="AB40" s="39">
         <f t="shared" si="2"/>
         <v>4.8999999999999995</v>
       </c>
@@ -35629,111 +35629,111 @@
       <c r="A41">
         <v>87</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="39">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="39">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="39">
         <f t="shared" si="2"/>
         <v>6.6999999999999993</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="39">
         <f t="shared" si="2"/>
         <v>7.2000000000000011</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="39">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="39">
         <f t="shared" si="2"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="39">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="39">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="39">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="39">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="39">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="R41" s="46">
+      <c r="R41" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="S41" s="46">
+      <c r="S41" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="T41" s="46">
+      <c r="T41" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="U41" s="46">
+      <c r="U41" s="39">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="W41" s="46">
+      <c r="W41" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="X41" s="46">
+      <c r="X41" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="Y41" s="46">
+      <c r="Y41" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="Z41" s="46">
+      <c r="Z41" s="39">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="AA41" s="46">
+      <c r="AA41" s="39">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="AB41" s="46">
+      <c r="AB41" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
@@ -35742,111 +35742,111 @@
       <c r="A42">
         <v>88</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="39">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="39">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="39">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="39">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="39">
         <f t="shared" si="2"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="39">
         <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="39">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="39">
         <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="39">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="39">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="39">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="39">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S42" s="46">
+      <c r="S42" s="39">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="T42" s="46">
+      <c r="T42" s="39">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="U42" s="46">
+      <c r="U42" s="39">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="V42" s="46">
+      <c r="V42" s="39">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="W42" s="46">
+      <c r="W42" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="X42" s="46">
+      <c r="X42" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="Y42" s="46">
+      <c r="Y42" s="39">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="Z42" s="46">
+      <c r="Z42" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AA42" s="46">
+      <c r="AA42" s="39">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="AB42" s="46">
+      <c r="AB42" s="39">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
@@ -35855,111 +35855,111 @@
       <c r="A43">
         <v>89</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="39">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="39">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="39">
         <f t="shared" si="2"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="39">
         <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="39">
         <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="39">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="39">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="39">
         <f t="shared" si="2"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="39">
         <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="39">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="S43" s="46">
+      <c r="S43" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="T43" s="46">
+      <c r="T43" s="39">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="U43" s="46">
+      <c r="U43" s="39">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="V43" s="46">
+      <c r="V43" s="39">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="W43" s="46">
+      <c r="W43" s="39">
         <f t="shared" si="2"/>
         <v>8.7000000000000011</v>
       </c>
-      <c r="X43" s="46">
+      <c r="X43" s="39">
         <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
-      <c r="Y43" s="46">
+      <c r="Y43" s="39">
         <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="Z43" s="46">
+      <c r="Z43" s="39">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="AA43" s="46">
+      <c r="AA43" s="39">
         <f t="shared" si="2"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="AB43" s="46">
+      <c r="AB43" s="39">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
@@ -35968,111 +35968,111 @@
       <c r="A44">
         <v>90</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="39">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="39">
         <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="39">
         <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="39">
         <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="39">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="39">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="39">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="39">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="39">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="39">
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="39">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="39">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="S44" s="46">
+      <c r="S44" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="39">
         <f t="shared" si="2"/>
         <v>7.2000000000000011</v>
       </c>
-      <c r="U44" s="46">
+      <c r="U44" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="V44" s="46">
+      <c r="V44" s="39">
         <f t="shared" si="2"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="W44" s="46">
+      <c r="W44" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="X44" s="46">
+      <c r="X44" s="39">
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="Y44" s="46">
+      <c r="Y44" s="39">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="AA44" s="46">
+      <c r="AA44" s="39">
         <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
-      <c r="AB44" s="46">
+      <c r="AB44" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
@@ -36081,111 +36081,111 @@
       <c r="A45">
         <v>91</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="39">
         <f t="shared" si="1"/>
         <v>6.1</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="39">
         <f t="shared" si="2"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="39">
         <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="39">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="39">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="39">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="39">
         <f t="shared" si="2"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="39">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="39">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="39">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="39">
         <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="39">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="S45" s="46">
+      <c r="S45" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="T45" s="46">
+      <c r="T45" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="U45" s="46">
+      <c r="U45" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="V45" s="46">
+      <c r="V45" s="39">
         <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="W45" s="46">
+      <c r="W45" s="39">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="X45" s="46">
+      <c r="X45" s="39">
         <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y45" s="46">
+      <c r="Y45" s="39">
         <f t="shared" si="2"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="Z45" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AA45" s="46">
+      <c r="AA45" s="39">
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="AB45" s="46">
+      <c r="AB45" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
@@ -36194,111 +36194,111 @@
       <c r="A46">
         <v>92</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="39">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="39">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="39">
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="39">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="39">
         <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="39">
         <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="39">
         <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="39">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="39">
         <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="39">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="39">
         <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="39">
         <f t="shared" si="2"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="39">
         <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="39">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="S46" s="46">
+      <c r="S46" s="39">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="T46" s="46">
+      <c r="T46" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="U46" s="46">
+      <c r="U46" s="39">
         <f t="shared" si="2"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="V46" s="46">
+      <c r="V46" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="W46" s="46">
+      <c r="W46" s="39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="X46" s="46">
+      <c r="X46" s="39">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y46" s="46">
+      <c r="Y46" s="39">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="39">
         <f t="shared" si="2"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AA46" s="46">
+      <c r="AA46" s="39">
         <f t="shared" si="2"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="AB46" s="46">
+      <c r="AB46" s="39">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
@@ -36307,111 +36307,111 @@
       <c r="A47">
         <v>93</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="39">
         <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="39">
         <f t="shared" si="2"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="39">
         <f t="shared" si="2"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="39">
         <f t="shared" si="2"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="39">
         <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="39">
         <f t="shared" ref="H47:AB47" si="3">H23*10+4.2</f>
         <v>10.400000000000002</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="39">
         <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="39">
         <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="39">
         <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="39">
         <f t="shared" si="3"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="39">
         <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="39">
         <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="39">
         <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="39">
         <f t="shared" si="3"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="39">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="39">
         <f t="shared" si="3"/>
         <v>7.9</v>
       </c>
-      <c r="S47" s="46">
+      <c r="S47" s="39">
         <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T47" s="39">
         <f t="shared" si="3"/>
         <v>5.7000000000000011</v>
       </c>
-      <c r="U47" s="46">
+      <c r="U47" s="39">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="V47" s="46">
+      <c r="V47" s="39">
         <f t="shared" si="3"/>
         <v>8.9</v>
       </c>
-      <c r="W47" s="46">
+      <c r="W47" s="39">
         <f t="shared" si="3"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="X47" s="46">
+      <c r="X47" s="39">
         <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y47" s="46">
+      <c r="Y47" s="39">
         <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="Z47" s="39">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="AA47" s="46">
+      <c r="AA47" s="39">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="AB47" s="46">
+      <c r="AB47" s="39">
         <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
@@ -37238,26 +37238,26 @@
       <c r="GF2" s="2"/>
     </row>
     <row r="3" spans="1:188" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -37673,22 +37673,22 @@
       <c r="GF4" s="2"/>
     </row>
     <row r="5" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -38047,22 +38047,22 @@
       <c r="GF6" s="2"/>
     </row>
     <row r="7" spans="1:188" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -38226,85 +38226,85 @@
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="U9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="47" t="s">
+      <c r="Y9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="Z9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AD9" s="16"/>
@@ -39675,26 +39675,26 @@
       <c r="GE2" s="2"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -39950,22 +39950,22 @@
       </c>
     </row>
     <row r="5" spans="1:187" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -40322,22 +40322,22 @@
       <c r="GE6" s="2"/>
     </row>
     <row r="7" spans="1:187" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -40500,85 +40500,85 @@
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="U9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="47" t="s">
+      <c r="Y9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="Z9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="AB9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="47" t="s">
+      <c r="AC9" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AD9" s="16"/>
@@ -41848,27 +41848,27 @@
       <c r="GD2" s="2"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -42124,23 +42124,23 @@
       </c>
     </row>
     <row r="5" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -42496,23 +42496,23 @@
       <c r="GD6" s="2"/>
     </row>
     <row r="7" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -44055,27 +44055,27 @@
       <c r="GD2" s="2"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -44331,23 +44331,23 @@
       </c>
     </row>
     <row r="5" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -44703,23 +44703,23 @@
       <c r="GD6" s="2"/>
     </row>
     <row r="7" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -45443,22 +45443,22 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -45499,22 +45499,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -46319,27 +46319,27 @@
       <c r="GD2" s="2"/>
     </row>
     <row r="3" spans="1:187" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -46595,23 +46595,23 @@
       </c>
     </row>
     <row r="5" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -46967,23 +46967,23 @@
       <c r="GD6" s="2"/>
     </row>
     <row r="7" spans="1:187" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -47707,22 +47707,22 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -47763,22 +47763,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -48581,27 +48581,27 @@
       <c r="GC2" s="2"/>
     </row>
     <row r="3" spans="1:186" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -48856,23 +48856,23 @@
       </c>
     </row>
     <row r="5" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -49226,23 +49226,23 @@
       <c r="GC6" s="2"/>
     </row>
     <row r="7" spans="1:186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -49964,22 +49964,22 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -50020,22 +50020,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -50900,27 +50900,27 @@
       <c r="GB2" s="2"/>
     </row>
     <row r="3" spans="1:185" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -51174,23 +51174,23 @@
       </c>
     </row>
     <row r="5" spans="1:185" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -51542,23 +51542,23 @@
       <c r="GB6" s="2"/>
     </row>
     <row r="7" spans="1:185" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -52274,22 +52274,22 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -52330,22 +52330,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
